--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_26.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(38.12, 52.64)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4861111111111112</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C', 'G', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A', 'A', 'D', 'A']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.272756, 18.241101)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(27.963197, 43.926916)]</t>
+          <t>[('0:00:39.800000', '0:00:45.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:32.980000', '0:00:35.260000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4588235294117647</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(13.52, 25.4)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:03.599751', '0:00:07.761836')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08191489361702128</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:01.260000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[('0:00:23.020000', '0:00:32.580000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:53.280000', '0:01:05.120000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[('0:00:46.220000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.980000', '0:00:06.300000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:32.060000', '0:00:33.280000'), ('0:00:08.200000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:00:53.460000', '0:01:02.740000'), ('0:00:00.380000', '0:00:06.260000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3535714285714285</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:02:00', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:00:36.820000', '0:00:38.820000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.675</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[('0:00:00.421247', '0:00:20.904331')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:13.919000', '0:02:27.191000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(101.44, 112.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(86.66, 96.12)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
